--- a/biology/Médecine/Société_française_de_microbiologie/Société_française_de_microbiologie.xlsx
+++ b/biology/Médecine/Société_française_de_microbiologie/Société_française_de_microbiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_microbiologie</t>
+          <t>Société_française_de_microbiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société française de microbiologie (SFM) est une société savante fondée en 1937, spécialisée dans la Microbiologie, qui a vocation « à rassembler les microbiologistes de France et des pays francophones, travaillant dans les différents domaines de la microbiologie médicale, industrielle, et environnementale, en physiologie, génétique, taxonomie, hygiène, agents antimicrobiens, ... concernant les bactéries, virus, champignons et parasites ».
 Son siège est au 36 avenue Jean-Moulin à Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_microbiologie</t>
+          <t>Société_française_de_microbiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association des Microbiologistes de Langue française a été fondée le 28 octobre 1937, à Paris, son siège étant situé à l’institut Pasteur de Paris.
 Les fondateurs créèrent à la même époque des filiales en Belgique, au Canada, et en Roumanie. Ultérieurement, des Sociétés nationales ont été fondées dans ces pays.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_microbiologie</t>
+          <t>Société_française_de_microbiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sections
-La SFM est composée de douze sections :
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La SFM est composée de douze sections :
 Agents Anti-Infectieux
 Microbiologie Clinique
 Biodiversité et Evolution
@@ -560,9 +579,43 @@
 Mycologie
 Pathogénie Microbienne
 Sûreté et Sécurité Biologiques
-Virologie
-Groupes d'étude
-Azay
+Virologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Société_française_de_microbiologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_microbiologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sections et groupes d'étude</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Groupes d'étude</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Azay
 Bactéries lactiques
 BSPIT
 Comité de l'Antibiogramme
@@ -586,44 +639,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_microbiologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_microbiologie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Organisation de la société</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La SFM est gérée par un bureau issu du conseil d'administration. Le bureau se réunit chaque mois et le conseil d'administration deux fois par an. La permanence est assurée par le secrétariat.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_microbiologie</t>
+          <t>Société_française_de_microbiologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,10 +660,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Organisation de la société</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La SFM est gérée par un bureau issu du conseil d'administration. Le bureau se réunit chaque mois et le conseil d'administration deux fois par an. La permanence est assurée par le secrétariat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Société_française_de_microbiologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_microbiologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Représentations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La SFM représente la France dans ses domaines de compétences auprès de :
 Le comité français des unions scientifiques (COFUSI) par son comité national français de microbiologie constitué par les membres de son bureau.
